--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_5_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_5_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.398464677393463e-10</v>
+        <v>1.232704727183176e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.398464677393463e-10</v>
+        <v>1.232704727183176e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>60.08554874961556</v>
+        <v>53.75910258444269</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[43.891898069696424, 76.2791994295347]</t>
+          <t>[37.85603380011028, 69.6621713687751]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.035982493708843e-09</v>
+        <v>1.960521545107952e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>2.035982493708843e-09</v>
+        <v>1.960521545107952e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.70444766591158</v>
+        <v>1.591237119836272</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4025528763774258, 2.0063424554457345]</t>
+          <t>[1.2516054816103486, 1.9308687580621955]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>3.099076550938662e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>3.099076550938662e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>60.45422024131547</v>
+        <v>61.23621318224321</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.72016469467911, 70.18827578795182]</t>
+          <t>[50.96624503681968, 71.50618132766675]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>17.73725725725752</v>
+        <v>18.11607607607634</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.56776776776801</v>
+        <v>16.80472472472497</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.90674674674703</v>
+        <v>19.42742742742771</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.124157941294172e-07</v>
+        <v>7.190756878827642e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>5.124157941294172e-07</v>
+        <v>7.190756878827642e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.61757981097129</v>
+        <v>53.28036498097725</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[29.262197082519926, 61.97296253942266]</t>
+          <t>[38.455814288069746, 68.10491567388475]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.149601841499148e-06</v>
+        <v>4.514195905969132e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>1.149601841499148e-06</v>
+        <v>4.514195905969132e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>1.641552918091965</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2012896833546574, 2.0818161528292727]</t>
+          <t>[1.1383949355350405, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.798964088806088e-09</v>
+        <v>1.16924248061423e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>1.798964088806088e-09</v>
+        <v>1.16924248061423e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>50.04288411683916</v>
+        <v>55.61591629946398</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[39.78872415208003, 60.297044081598294]</t>
+          <t>[46.48249194896768, 64.74934064996029]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.892886427247504e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>8.892886427247504e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>17.98090090090117</v>
+        <v>18.60176176176203</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.27539539539564</v>
+        <v>17.33897897897923</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.6864064064067</v>
+        <v>19.86454454454483</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.027981199110741e-10</v>
+        <v>2.733532826759699e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>3.027981199110741e-10</v>
+        <v>2.733532826759699e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>53.41570367657446</v>
+        <v>52.56202365395494</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[38.96036230427556, 67.87104504887336]</t>
+          <t>[31.69929825145519, 73.42474905645469]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.25895879779614e-09</v>
+        <v>7.178192148904472e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.25895879779614e-09</v>
+        <v>7.178192148904472e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.452868674633118</v>
+        <v>1.226447582482503</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 1.7547634641672722]</t>
+          <t>[0.798763297309117, 1.654131867655888]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.368904989362818e-12</v>
+        <v>6.712963491750656e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.368904989362818e-12</v>
+        <v>6.712963491750656e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>58.00270253145609</v>
+        <v>61.24458360539762</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.11586448595077, 66.88954057696142]</t>
+          <t>[49.80097626163207, 72.68819094916316]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.707345624410664e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.707345624410664e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>18.71183183183211</v>
+        <v>19.52456456456485</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5423423423426</v>
+        <v>17.87323323323349</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.88132132132162</v>
+        <v>21.1758958958962</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.235722780105867e-06</v>
+        <v>8.767081216554118e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>5.235722780105867e-06</v>
+        <v>8.767081216554118e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.5999316819865</v>
+        <v>51.22898405423116</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.78707459702875, 55.41278876694426]</t>
+          <t>[31.483712894641826, 70.97425521382048]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.179257923524581e-05</v>
+        <v>4.325340305255665e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>3.179257923524581e-05</v>
+        <v>4.325340305255665e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33965812855781</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.836500146000887, 1.8428161111147325]</t>
+          <t>[0.6855527512338089, 1.46544762419704]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.727151063863786e-06</v>
+        <v>1.421828271341852e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>2.727151063863786e-06</v>
+        <v>1.421828271341852e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>41.76292761045382</v>
+        <v>63.91216265356176</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[32.02965327424866, 51.496201946658985]</t>
+          <t>[53.32443774688638, 74.49988756023714]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.086864180408156e-11</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>4.086864180408156e-11</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>19.15039039039068</v>
+        <v>20.10738738738768</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.2012412412415</v>
+        <v>18.60176176176203</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.09953953953985</v>
+        <v>21.61301301301333</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.954458310970963e-06</v>
+        <v>4.094450503866476e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>1.954458310970963e-06</v>
+        <v>4.094450503866476e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.26276909783287</v>
+        <v>45.79778437467262</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[28.888127181652422, 69.63741101401331]</t>
+          <t>[24.84938586021603, 66.7461828891292]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.417344815135557e-05</v>
+        <v>6.504887011660188e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.417344815135557e-05</v>
+        <v>6.504887011660188e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.389973926813503</v>
+        <v>1.088079137279348</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.9119738433844251, 1.8679740102425804]</t>
+          <t>[0.5849211547224238, 1.591237119836273]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.091824504255271e-07</v>
+        <v>7.583701614244376e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>5.091824504255271e-07</v>
+        <v>7.583701614244376e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>57.38445626433379</v>
+        <v>51.43940855460616</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.579913218759955, 69.18899930990763]</t>
+          <t>[40.08391747406639, 62.79489963514593]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.003641614261142e-12</v>
+        <v>8.481659818926346e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.003641614261142e-12</v>
+        <v>8.481659818926346e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>18.95547547547576</v>
+        <v>20.05881881881911</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.10378378378404</v>
+        <v>18.11607607607634</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.80716716716748</v>
+        <v>22.00156156156188</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.851400739967147e-07</v>
+        <v>5.31685784288527e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>2.851400739967147e-07</v>
+        <v>5.31685784288527e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>46.04012369974085</v>
+        <v>55.74412439140582</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[26.83171032441828, 65.24853707506341]</t>
+          <t>[37.11783757510857, 74.37041120770307]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.62978388618118e-05</v>
+        <v>2.839884403194048e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62978388618118e-05</v>
+        <v>2.839884403194048e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9497106920761942</v>
+        <v>1.251605481610349</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.5094474573388856, 1.3899739268135027]</t>
+          <t>[0.8993948938205021, 1.603816069400195]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.850555258337444e-05</v>
+        <v>5.959386983889203e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>7.850555258337444e-05</v>
+        <v>5.959386983889203e-09</v>
       </c>
       <c r="T7" t="n">
-        <v>52.95807871083364</v>
+        <v>59.32560138274313</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.95652624671249, 62.95963117495479]</t>
+          <t>[49.043101261876544, 69.60810150360972]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.661338147750939e-14</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>6.661338147750939e-14</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>20.66098098098129</v>
+        <v>19.42742742742771</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.95547547547576</v>
+        <v>18.06750750750777</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.36648648648682</v>
+        <v>20.78734734734765</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.366652374075073e-08</v>
+        <v>4.912191209349714e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>2.366652374075073e-08</v>
+        <v>4.912191209349714e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>60.81219668602155</v>
+        <v>54.61040195947049</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[38.46786025644188, 83.15653311560122]</t>
+          <t>[34.587036076648246, 74.63376784229273]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.823769984587997e-06</v>
+        <v>1.753739737875293e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.823769984587997e-06</v>
+        <v>1.753739737875293e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.075500187715425</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.4654476241970418]</t>
+          <t>[0.798763297309117, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.421828271341852e-06</v>
+        <v>1.935870967972875e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.421828271341852e-06</v>
+        <v>1.935870967972875e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>54.91029891160793</v>
+        <v>58.47882663497011</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.016916965255305, 66.80368085796056]</t>
+          <t>[47.45614632366545, 69.50150694627477]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.819034060687954e-12</v>
+        <v>6.261657858885883e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>4.819034060687954e-12</v>
+        <v>6.261657858885883e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>20.17369369369399</v>
+        <v>19.67027027027056</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.66310310310338</v>
+        <v>18.16464464464491</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.68428428428461</v>
+        <v>21.1758958958962</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.672499468038609e-09</v>
+        <v>6.506583682952538e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>9.672499468038609e-09</v>
+        <v>6.506583682952538e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>53.87697410416679</v>
+        <v>48.99223311395266</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[35.16658296665106, 72.58736524168252]</t>
+          <t>[30.235847513386517, 67.74861871451881]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.187484584696534e-07</v>
+        <v>3.841103887181063e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>6.187484584696534e-07</v>
+        <v>3.841103887181063e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>1.188710733790733</v>
+        <v>1.088079137279348</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 1.553500271144502]</t>
+          <t>[0.6729738016698859, 1.5031844728888109]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.540230946759038e-08</v>
+        <v>3.609354970901535e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>4.540230946759038e-08</v>
+        <v>3.609354970901535e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>62.10570530593515</v>
+        <v>61.10560274892531</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[51.93173362969716, 72.27967698217313]</t>
+          <t>[51.117325493244465, 71.09388000460615]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>19.73513513513543</v>
+        <v>20.05881881881911</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.32200200200228</v>
+        <v>18.45605605605632</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.14826826826859</v>
+        <v>21.6615815815819</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.398016210936049e-06</v>
+        <v>4.879486833320179e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>2.398016210936049e-06</v>
+        <v>4.879486833320179e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.58003441889048</v>
+        <v>39.06619124069482</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[25.556653519305087, 69.60341531847587]</t>
+          <t>[17.610714414524182, 60.52166806686546]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.685607868368471e-05</v>
+        <v>0.0006454991146829236</v>
       </c>
       <c r="O10" t="n">
-        <v>7.685607868368471e-05</v>
+        <v>0.0006454991146829236</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9748685912040402</v>
+        <v>0.8490790955648091</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5346053564667317, 1.4151318259413488]</t>
+          <t>[0.3333421634439615, 1.3648160276856567]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5.421087637991207e-05</v>
+        <v>0.00181238867757294</v>
       </c>
       <c r="S10" t="n">
-        <v>5.421087637991207e-05</v>
+        <v>0.00181238867757294</v>
       </c>
       <c r="T10" t="n">
-        <v>55.3732757135767</v>
+        <v>53.66314210020204</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.90303393601907, 66.84351749113432]</t>
+          <t>[42.537078203104954, 64.78920599729912]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.2436718321851e-12</v>
+        <v>1.278754879763255e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2436718321851e-12</v>
+        <v>1.278754879763255e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>20.56352352352383</v>
+        <v>20.98162162162193</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.8580180180183</v>
+        <v>18.99031031031058</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.26902902902936</v>
+        <v>22.97293293293327</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.050712338303896e-08</v>
+        <v>1.498472568250975e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>3.050712338303896e-08</v>
+        <v>1.498472568250975e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>55.80577658107748</v>
+        <v>59.19767711382871</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[35.394125267385036, 76.21742789476993]</t>
+          <t>[39.56959914657604, 78.82575508108138]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.67557819152897e-06</v>
+        <v>2.420439748629377e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67557819152897e-06</v>
+        <v>2.420439748629377e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8490790955648082</v>
+        <v>0.4717106086471166</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.47171060864711567, 1.2264475824825007]</t>
+          <t>[0.132078970421194, 0.8113422468730391]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>0.007554863006441481</v>
       </c>
       <c r="S11" t="n">
-        <v>4.294577757657514e-05</v>
+        <v>0.007554863006441481</v>
       </c>
       <c r="T11" t="n">
-        <v>54.55277551375021</v>
+        <v>60.97947182311946</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.63945960984469, 65.46609141765572]</t>
+          <t>[50.82643161869291, 71.13251202754601]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.205524817280093e-13</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>4.205524817280093e-13</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>21.97621621621668</v>
+        <v>23.26186186186231</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.45009009009052</v>
+        <v>21.90240240240283</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.50234234234284</v>
+        <v>24.6213213213218</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72416020349786e-08</v>
+        <v>2.721765337554416e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>1.72416020349786e-08</v>
+        <v>2.721765337554416e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.27666823696566</v>
+        <v>49.07835119920659</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[40.73473486700364, 79.81860160692767]</t>
+          <t>[30.36910736262196, 67.78759503579121]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.50943450183405e-07</v>
+        <v>3.560698968785303e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>1.50943450183405e-07</v>
+        <v>3.560698968785303e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3459211130078854</v>
+        <v>0.3585000625718084</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.03144737390980801, 0.7232895999255788]</t>
+          <t>[-0.05660527303765406, 0.7736053981812709]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.07143787951971903</v>
+        <v>0.08879195921310834</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07143787951971903</v>
+        <v>0.08879195921310834</v>
       </c>
       <c r="T12" t="n">
-        <v>65.29397043713496</v>
+        <v>60.73475278239192</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[54.010581631141605, 76.57735924312831]</t>
+          <t>[50.34241737091996, 71.12708819386387]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>24.01105105105155</v>
+        <v>23.71501501501548</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.48492492492539</v>
+        <v>22.05345345345388</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.53717717717771</v>
+        <v>25.37657657657707</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.438141735756517e-07</v>
+        <v>4.328391387420361e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>3.438141735756517e-07</v>
+        <v>4.328391387420361e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.04614500916168</v>
+        <v>49.23687206029598</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[36.7776407410407, 75.31464927728267]</t>
+          <t>[30.781134991914072, 67.69260912867789]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5.064002557286784e-07</v>
+        <v>2.630004036552336e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>5.064002557286784e-07</v>
+        <v>2.630004036552336e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.09434212172942313</v>
+        <v>0.006289474781961957</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.2956053147521933, 0.4842895582110396]</t>
+          <t>[-0.4465527095192696, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6284231598121859</v>
+        <v>0.9778068535345217</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6284231598121859</v>
+        <v>0.9778068535345217</v>
       </c>
       <c r="T13" t="n">
-        <v>59.30793600783305</v>
+        <v>53.80550345811172</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.37422642982875, 71.24164558583735]</t>
+          <t>[41.85792612859753, 65.75308078762592]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.044853423896711e-13</v>
+        <v>1.007993688517672e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>5.044853423896711e-13</v>
+        <v>1.007993688517672e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>25.02846846846899</v>
+        <v>25.12482482482531</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.45147147147196</v>
+        <v>23.31221221221266</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.60546546546603</v>
+        <v>26.93743743743796</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>8.441415578985811e-06</v>
+        <v>6.617151271370858e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>8.441415578985811e-06</v>
+        <v>6.617151271370858e-12</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>41.41022572892727</v>
+        <v>59.13747914339108</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[22.02133656557315, 60.79911489228138]</t>
+          <t>[45.07902299283339, 73.19593529394878]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.0094092708215e-05</v>
+        <v>7.150391390098321e-11</v>
       </c>
       <c r="O14" t="n">
-        <v>9.0094092708215e-05</v>
+        <v>7.150391390098321e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.1635263443310002</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.8679475199106932, 0.16352634433100022]</t>
+          <t>[-0.4276842851733855, 0.10063159651138509]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1757898152125283</v>
+        <v>0.2189122556200185</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1757898152125283</v>
+        <v>0.2189122556200185</v>
       </c>
       <c r="T14" t="n">
-        <v>48.3289819760503</v>
+        <v>61.69391135578886</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[37.791761878303404, 58.8662020737972]</t>
+          <t>[53.2639528354471, 70.12386987613063]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.868860952773503e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>5.868860952773503e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.424384384384414</v>
+        <v>0.6545545545545686</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.6613213213213345</v>
+        <v>-0.4028028028028108</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.510090090090162</v>
+        <v>1.711911911911948</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>7.310028713458649e-07</v>
+        <v>1.026861595754269e-09</v>
       </c>
       <c r="I15" t="n">
-        <v>7.310028713458649e-07</v>
+        <v>1.026861595754269e-09</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>52.00689801143779</v>
+        <v>54.37599273753728</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[28.89625455136469, 75.11754147151089]</t>
+          <t>[36.88608688845501, 71.86589858661955]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.284929339370969e-05</v>
+        <v>1.274646894700027e-07</v>
       </c>
       <c r="O15" t="n">
-        <v>4.284929339370969e-05</v>
+        <v>1.274646894700027e-07</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.6541053773240009</v>
+        <v>-0.4402632347373086</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.1069475616252324, -0.2012631930227693]</t>
+          <t>[-0.767315923399309, -0.11321054607530812]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.005611690508154021</v>
+        <v>0.009455502149745332</v>
       </c>
       <c r="S15" t="n">
-        <v>0.005611690508154021</v>
+        <v>0.009455502149745332</v>
       </c>
       <c r="T15" t="n">
-        <v>69.00561155343787</v>
+        <v>51.44856598612635</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[57.10982452299013, 80.90139858388562]</t>
+          <t>[42.11376393192981, 60.783368040322884]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="W15" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="X15" t="n">
-        <v>2.64528528528534</v>
+        <v>1.762262262262297</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8139339339339493</v>
+        <v>0.4531531531531625</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.47663663663673</v>
+        <v>3.071371371371431</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.18421477401931e-07</v>
+        <v>6.379508032949843e-11</v>
       </c>
       <c r="I16" t="n">
-        <v>1.18421477401931e-07</v>
+        <v>6.379508032949843e-11</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>55.65390867725651</v>
+        <v>62.55745723236335</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[32.7314236338613, 78.57639372065172]</t>
+          <t>[43.46273535746741, 81.6521791072593]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.325278869646063e-05</v>
+        <v>4.022723953944762e-08</v>
       </c>
       <c r="O16" t="n">
-        <v>1.325278869646063e-05</v>
+        <v>4.022723953944762e-08</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8302106712189241</v>
+        <v>-0.8679475199106932</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.2201581077005397, -0.44026323473730855]</t>
+          <t>[-1.1698423094448476, -0.5660527303765388]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>9.408258977949835e-05</v>
+        <v>6.382566648532872e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>9.408258977949835e-05</v>
+        <v>6.382566648532872e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>64.08943361786169</v>
+        <v>62.49338828055608</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[52.252825825112836, 75.92604141061054]</t>
+          <t>[52.559688909430676, 72.42708765168149]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.219646771412954e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W16" t="n">
-        <v>3.219646771412954e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X16" t="n">
-        <v>3.357477477477548</v>
+        <v>3.474174174174237</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.78048048048052</v>
+        <v>2.265765765765805</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.934474474474577</v>
+        <v>4.68258258258267</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.246821395601728e-09</v>
+        <v>2.655874742352182e-09</v>
       </c>
       <c r="I17" t="n">
-        <v>2.246821395601728e-09</v>
+        <v>2.655874742352182e-09</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>58.39340848726079</v>
+        <v>55.30645813880844</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[40.105503110849526, 76.68131386367206]</t>
+          <t>[37.470234906436744, 73.14268137118015]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>7.139606950090638e-08</v>
+        <v>1.348800331424371e-07</v>
       </c>
       <c r="O17" t="n">
-        <v>7.139606950090638e-08</v>
+        <v>1.348800331424371e-07</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.358526552903695</v>
+        <v>-1.245316006828387</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.710737140693542, -1.0063159651138474]</t>
+          <t>[-1.6101055441821561, -0.8805264694746171]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>7.49938555699714e-10</v>
+        <v>1.557960493947519e-08</v>
       </c>
       <c r="S17" t="n">
-        <v>7.49938555699714e-10</v>
+        <v>1.557960493947519e-08</v>
       </c>
       <c r="T17" t="n">
-        <v>57.14392708678187</v>
+        <v>57.89310267453712</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[46.417631740922204, 67.87022243264154]</t>
+          <t>[47.738104191606055, 68.04810115746818]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.46229728115577e-14</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="W17" t="n">
-        <v>5.46229728115577e-14</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="X17" t="n">
-        <v>5.494054054054171</v>
+        <v>4.984684684684783</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.069669669669754</v>
+        <v>3.524524524524595</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.918438438438589</v>
+        <v>6.444844844844971</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_5_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_5_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.232704727183176e-08</v>
+        <v>8.533741491234537e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>1.232704727183176e-08</v>
+        <v>8.533741491234537e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>53.75910258444269</v>
+        <v>61.52063521967339</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[37.85603380011028, 69.6621713687751]</t>
+          <t>[45.837938447678624, 77.20333199166816]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.960521545107952e-08</v>
+        <v>4.805122966189401e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.960521545107952e-08</v>
+        <v>4.805122966189401e-10</v>
       </c>
       <c r="P2" t="n">
-        <v>1.591237119836272</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 1.9308687580621955]</t>
+          <t>[1.2390265320464238, 1.8679740102425804]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.099076550938662e-12</v>
+        <v>6.090683513093609e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>3.099076550938662e-12</v>
+        <v>6.090683513093609e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>61.23621318224321</v>
+        <v>64.58544615366792</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.96624503681968, 71.50618132766675]</t>
+          <t>[53.96169699774538, 75.20919530959046]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>18.11607607607634</v>
+        <v>18.28436436436463</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.80472472472497</v>
+        <v>17.0686486486489</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.42742742742771</v>
+        <v>19.50008008008037</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7.190756878827642e-10</v>
+        <v>2.08939818668874e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>7.190756878827642e-10</v>
+        <v>2.08939818668874e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>53.28036498097725</v>
+        <v>47.66339850118413</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.455814288069746, 68.10491567388475]</t>
+          <t>[31.219468490508746, 64.10732851185952]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.514195905969132e-09</v>
+        <v>5.429829221803573e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>4.514195905969132e-09</v>
+        <v>5.429829221803573e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.465447624197041</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1383949355350405, 1.7925003128590413]</t>
+          <t>[1.0503422885875784, 1.8805529598065016]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.16924248061423e-11</v>
+        <v>6.991643708431639e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>1.16924248061423e-11</v>
+        <v>6.991643708431639e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>55.61591629946398</v>
+        <v>59.89140531325871</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.48249194896768, 64.74934064996029]</t>
+          <t>[49.629645570282605, 70.15316505623481]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>18.60176176176203</v>
+        <v>18.62476476476504</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.33897897897923</v>
+        <v>17.02002002002028</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.86454454454483</v>
+        <v>20.22950950950981</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.733532826759699e-07</v>
+        <v>9.309016668623826e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>2.733532826759699e-07</v>
+        <v>9.309016668623826e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>52.56202365395494</v>
+        <v>52.79087349017787</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[31.69929825145519, 73.42474905645469]</t>
+          <t>[35.47476381424654, 70.1069831661092]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.178192148904472e-06</v>
+        <v>1.93227711609012e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>7.178192148904472e-06</v>
+        <v>1.93227711609012e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>1.226447582482503</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 1.654131867655888]</t>
+          <t>[1.1132370364071944, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.712963491750656e-07</v>
+        <v>7.617579900198734e-10</v>
       </c>
       <c r="S4" t="n">
-        <v>6.712963491750656e-07</v>
+        <v>7.617579900198734e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>61.24458360539762</v>
+        <v>53.65032489322539</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.80097626163207, 72.68819094916316]</t>
+          <t>[42.67495494445146, 64.62569484199932]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.707345624410664e-14</v>
+        <v>8.451017663446692e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>4.707345624410664e-14</v>
+        <v>8.451017663446692e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>19.52456456456485</v>
+        <v>18.47887887887915</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.87323323323349</v>
+        <v>16.97139139139164</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.1758958958962</v>
+        <v>19.98636636636666</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8.767081216554118e-08</v>
+        <v>9.403999036705635e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>8.767081216554118e-08</v>
+        <v>9.403999036705635e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.22898405423116</v>
+        <v>49.55501951277688</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[31.483712894641826, 70.97425521382048]</t>
+          <t>[27.813172401788492, 71.29686662376527]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.325340305255665e-06</v>
+        <v>3.545853586994774e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>4.325340305255665e-06</v>
+        <v>3.545853586994774e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.075500187715424</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.46544762419704]</t>
+          <t>[0.8365001460008861, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.421828271341852e-06</v>
+        <v>3.591315280937479e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>1.421828271341852e-06</v>
+        <v>3.591315280937479e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>63.91216265356176</v>
+        <v>63.54333669266661</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[53.32443774688638, 74.49988756023714]</t>
+          <t>[50.654295357312556, 76.43237802802065]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>6.485922909860165e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>6.485922909860165e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>20.10738738738768</v>
+        <v>19.0624224224227</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.60176176176203</v>
+        <v>17.0686486486489</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.61301301301333</v>
+        <v>21.05619619619651</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.094450503866476e-06</v>
+        <v>2.065148052565746e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>4.094450503866476e-06</v>
+        <v>2.065148052565746e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.79778437467262</v>
+        <v>67.21066946225768</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[24.84938586021603, 66.7461828891292]</t>
+          <t>[49.17432214832877, 85.2470167761866]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.504887011660188e-05</v>
+        <v>1.825800621801932e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>6.504887011660188e-05</v>
+        <v>1.825800621801932e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>1.088079137279348</v>
+        <v>1.289342330302118</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 1.591237119836273]</t>
+          <t>[1.0126054398958093, 1.566079220708426]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.583701614244376e-05</v>
+        <v>3.667510739546742e-12</v>
       </c>
       <c r="S6" t="n">
-        <v>7.583701614244376e-05</v>
+        <v>3.667510739546742e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>51.43940855460616</v>
+        <v>67.79989533213187</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.08391747406639, 62.79489963514593]</t>
+          <t>[57.63510186650379, 77.96468879775995]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.481659818926346e-12</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>8.481659818926346e-12</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>20.05881881881911</v>
+        <v>19.30556556556585</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.11607607607634</v>
+        <v>18.235735735736</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.00156156156188</v>
+        <v>20.3753953953957</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.31685784288527e-09</v>
+        <v>3.005777696740708e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>5.31685784288527e-09</v>
+        <v>3.005777696740708e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>55.74412439140582</v>
+        <v>51.30445397775735</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[37.11783757510857, 74.37041120770307]</t>
+          <t>[32.02203923056537, 70.58686872494933]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.839884403194048e-07</v>
+        <v>2.760979776583738e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.839884403194048e-07</v>
+        <v>2.760979776583738e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.251605481610349</v>
+        <v>1.364816027685657</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8993948938205021, 1.603816069400195]</t>
+          <t>[0.9371317425122712, 1.7925003128590422]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.959386983889203e-09</v>
+        <v>7.230347365272394e-08</v>
       </c>
       <c r="S7" t="n">
-        <v>5.959386983889203e-09</v>
+        <v>7.230347365272394e-08</v>
       </c>
       <c r="T7" t="n">
-        <v>59.32560138274313</v>
+        <v>56.39674974150173</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.043101261876544, 69.60810150360972]</t>
+          <t>[45.16651437462987, 67.62698510837359]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>3.634870182622763e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>3.634870182622763e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>19.42742742742771</v>
+        <v>19.01379379379407</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.06750750750777</v>
+        <v>17.36042042042067</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.78734734734765</v>
+        <v>20.66716716716747</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.912191209349714e-08</v>
+        <v>3.562300846748911e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>4.912191209349714e-08</v>
+        <v>3.562300846748911e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.61040195947049</v>
+        <v>51.98170044314793</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[34.587036076648246, 74.63376784229273]</t>
+          <t>[29.14693067808551, 74.81647020821035]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.753739737875293e-06</v>
+        <v>3.612038135836215e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.753739737875293e-06</v>
+        <v>3.612038135836215e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.188710733790733</v>
+        <v>1.239026532046426</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 1.5786581702723481]</t>
+          <t>[0.7610264486173479, 1.7170266154755032]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.935870967972875e-07</v>
+        <v>4.395810843993431e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>1.935870967972875e-07</v>
+        <v>4.395810843993431e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>58.47882663497011</v>
+        <v>60.74382666410858</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.45614632366545, 69.50150694627477]</t>
+          <t>[47.92195044874717, 73.56570287947]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.261657858885883e-14</v>
+        <v>2.212896532682862e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>6.261657858885883e-14</v>
+        <v>2.212896532682862e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>19.67027027027056</v>
+        <v>19.50008008008037</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.16464464464491</v>
+        <v>17.65219219219245</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1758958958962</v>
+        <v>21.34796796796828</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.506583682952538e-08</v>
+        <v>1.970932269834691e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>6.506583682952538e-08</v>
+        <v>1.970932269834691e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.99223311395266</v>
+        <v>49.71299546405534</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[30.235847513386517, 67.74861871451881]</t>
+          <t>[28.7351720549553, 70.69081887315538]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.841103887181063e-06</v>
+        <v>1.951010883116666e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>3.841103887181063e-06</v>
+        <v>1.951010883116666e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.088079137279348</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6729738016698859, 1.5031844728888109]</t>
+          <t>[0.81134224687304, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.609354970901535e-06</v>
+        <v>2.892330376980112e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>3.609354970901535e-06</v>
+        <v>2.892330376980112e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>61.10560274892531</v>
+        <v>53.21775200637265</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[51.117325493244465, 71.09388000460615]</t>
+          <t>[41.316989209991874, 65.11851480275342]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.239985891743345e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.239985891743345e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>20.05881881881911</v>
+        <v>19.25693693693722</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.45605605605632</v>
+        <v>17.36042042042067</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.6615815815819</v>
+        <v>21.15345345345376</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.879486833320179e-05</v>
+        <v>3.91759802376157e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>4.879486833320179e-05</v>
+        <v>3.91759802376157e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>39.06619124069482</v>
+        <v>57.5781533418636</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[17.610714414524182, 60.52166806686546]</t>
+          <t>[36.03007403152375, 79.12623265220344]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0006454991146829236</v>
+        <v>2.555211441102045e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006454991146829236</v>
+        <v>2.555211441102045e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8490790955648091</v>
+        <v>0.7107106503616549</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.3333421634439615, 1.3648160276856567]</t>
+          <t>[0.3333421634439615, 1.0880791372793484]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.00181238867757294</v>
+        <v>0.0004409775733098531</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00181238867757294</v>
+        <v>0.0004409775733098531</v>
       </c>
       <c r="T10" t="n">
-        <v>53.66314210020204</v>
+        <v>61.88184220531902</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.537078203104954, 64.78920599729912]</t>
+          <t>[50.42881856936228, 73.33486584127577]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.278754879763255e-12</v>
+        <v>3.441691376337985e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.278754879763255e-12</v>
+        <v>3.441691376337985e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>20.98162162162193</v>
+        <v>21.5424824824828</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.99031031031058</v>
+        <v>20.08362362362392</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.97293293293327</v>
+        <v>23.00134134134168</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.498472568250975e-09</v>
+        <v>3.683608973403807e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>1.498472568250975e-09</v>
+        <v>3.683608973403807e-12</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>59.19767711382871</v>
+        <v>58.94261845991258</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[39.56959914657604, 78.82575508108138]</t>
+          <t>[42.49103883377168, 75.39419808605348]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.420439748629377e-07</v>
+        <v>4.876803627595905e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>2.420439748629377e-07</v>
+        <v>4.876803627595905e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4717106086471166</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.132078970421194, 0.8113422468730391]</t>
+          <t>[0.5723422051585008, 1.1006580868432714]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.007554863006441481</v>
+        <v>8.562500908304571e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007554863006441481</v>
+        <v>8.562500908304571e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>60.97947182311946</v>
+        <v>55.28535018337045</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.82643161869291, 71.13251202754601]</t>
+          <t>[46.96886733264835, 63.60183303409256]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>23.26186186186231</v>
+        <v>21.97507507507553</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.90240240240283</v>
+        <v>20.90930930930974</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.6213213213218</v>
+        <v>23.04084084084132</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.721765337554416e-07</v>
+        <v>8.512898830304039e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>2.721765337554416e-07</v>
+        <v>8.512898830304039e-08</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>49.07835119920659</v>
+        <v>52.49109700480518</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[30.36910736262196, 67.78759503579121]</t>
+          <t>[32.19902451047827, 72.7831694991321]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.560698968785303e-06</v>
+        <v>4.557085727885379e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>3.560698968785303e-06</v>
+        <v>4.557085727885379e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3585000625718084</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.05660527303765406, 0.7736053981812709]</t>
+          <t>[0.19497371824080822, 0.9748685912040393]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.08879195921310834</v>
+        <v>0.004142907235937354</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08879195921310834</v>
+        <v>0.004142907235937354</v>
       </c>
       <c r="T12" t="n">
-        <v>60.73475278239192</v>
+        <v>60.88058591083333</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[50.34241737091996, 71.12708819386387]</t>
+          <t>[50.289514024751696, 71.47165779691495]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>23.71501501501548</v>
+        <v>22.99009009009056</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.05345345345388</v>
+        <v>21.41681681681726</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.37657657657707</v>
+        <v>24.56336336336387</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.328391387420361e-06</v>
+        <v>5.419962444408455e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>4.328391387420361e-06</v>
+        <v>5.419962444408455e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>49.23687206029598</v>
+        <v>53.47374383873207</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[30.781134991914072, 67.69260912867789]</t>
+          <t>[33.6051508529746, 73.34233682448954]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.630004036552336e-06</v>
+        <v>2.240848668622064e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>2.630004036552336e-06</v>
+        <v>2.240848668622064e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.006289474781961957</v>
+        <v>-0.1761052938949232</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.4465527095192696, 0.45913165908319353]</t>
+          <t>[-0.6037895790683088, 0.2515789912784623]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.9778068535345217</v>
+        <v>0.4112916984985948</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9778068535345217</v>
+        <v>0.4112916984985948</v>
       </c>
       <c r="T13" t="n">
-        <v>53.80550345811172</v>
+        <v>57.08497336427057</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[41.85792612859753, 65.75308078762592]</t>
+          <t>[45.33380144382319, 68.83614528471794]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.007993688517672e-11</v>
+        <v>1.02562403014872e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.007993688517672e-11</v>
+        <v>1.02562403014872e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>25.12482482482531</v>
+        <v>0.7105105105105238</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.31221221221266</v>
+        <v>-1.015015015015038</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.93743743743796</v>
+        <v>2.436036036036086</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>6.617151271370858e-12</v>
+        <v>3.940815451741742e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>6.617151271370858e-12</v>
+        <v>3.940815451741742e-10</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>59.13747914339108</v>
+        <v>46.93821942513151</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[45.07902299283339, 73.19593529394878]</t>
+          <t>[32.32116375162329, 61.55527509863974]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7.150391390098321e-11</v>
+        <v>6.297587207271249e-08</v>
       </c>
       <c r="O14" t="n">
-        <v>7.150391390098321e-11</v>
+        <v>6.297587207271249e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1635263443310002</v>
+        <v>-0.5283158816847697</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 0.10063159651138509]</t>
+          <t>[-0.8679475199106932, -0.18868424345884627]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.2189122556200185</v>
+        <v>0.003040675529033088</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2189122556200185</v>
+        <v>0.003040675529033088</v>
       </c>
       <c r="T14" t="n">
-        <v>61.69391135578886</v>
+        <v>49.69342202020884</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[53.2639528354471, 70.12386987613063]</t>
+          <t>[41.86340183316459, 57.5234422072531]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6545545545545686</v>
+        <v>2.131531531531575</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.4028028028028108</v>
+        <v>0.761261261261277</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.711911911911948</v>
+        <v>3.501801801801873</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.026861595754269e-09</v>
+        <v>1.164427764877018e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>1.026861595754269e-09</v>
+        <v>1.164427764877018e-06</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>54.37599273753728</v>
+        <v>50.69268678747211</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[36.88608688845501, 71.86589858661955]</t>
+          <t>[29.232411804755642, 72.15296177018858]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.274646894700027e-07</v>
+        <v>2.052162440246974e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.274646894700027e-07</v>
+        <v>2.052162440246974e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.4402632347373086</v>
+        <v>-0.4276842851733855</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.767315923399309, -0.11321054607530812]</t>
+          <t>[-0.9056843686024632, 0.0503157982556921]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.009455502149745332</v>
+        <v>0.07823171421497621</v>
       </c>
       <c r="S15" t="n">
-        <v>0.009455502149745332</v>
+        <v>0.07823171421497621</v>
       </c>
       <c r="T15" t="n">
-        <v>51.44856598612635</v>
+        <v>56.12054184007818</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[42.11376393192981, 60.783368040322884]</t>
+          <t>[44.415078030864805, 67.82600564929155]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.798561299892754e-14</v>
+        <v>1.536992755291067e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.798561299892754e-14</v>
+        <v>1.536992755291067e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>1.762262262262297</v>
+        <v>1.725525525525562</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4531531531531625</v>
+        <v>-0.2030030030030063</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.071371371371431</v>
+        <v>3.65405405405413</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>6.379508032949843e-11</v>
+        <v>1.245778258329722e-09</v>
       </c>
       <c r="I16" t="n">
-        <v>6.379508032949843e-11</v>
+        <v>1.245778258329722e-09</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>62.55745723236335</v>
+        <v>61.70164689813384</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[43.46273535746741, 81.6521791072593]</t>
+          <t>[40.91030578411002, 82.49298801215765]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.022723953944762e-08</v>
+        <v>3.375691826068561e-07</v>
       </c>
       <c r="O16" t="n">
-        <v>4.022723953944762e-08</v>
+        <v>3.375691826068561e-07</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8679475199106932</v>
+        <v>-0.8805264694746171</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.1698423094448476, -0.5660527303765388]</t>
+          <t>[-1.2327370572644645, -0.5283158816847697]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>62.49338828055608</v>
+        <v>61.96813210755746</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[52.559688909430676, 72.42708765168149]</t>
+          <t>[51.022744049004956, 72.91352016610996]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="W16" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="X16" t="n">
-        <v>3.474174174174237</v>
+        <v>3.552552552552626</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.265765765765805</v>
+        <v>2.131531531531573</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.68258258258267</v>
+        <v>4.973573573573679</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.655874742352182e-09</v>
+        <v>1.086613021783478e-10</v>
       </c>
       <c r="I17" t="n">
-        <v>2.655874742352182e-09</v>
+        <v>1.086613021783478e-10</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>55.30645813880844</v>
+        <v>51.17016073599152</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[37.470234906436744, 73.14268137118015]</t>
+          <t>[36.09513861941346, 66.24518285256958]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1.348800331424371e-07</v>
+        <v>1.780967018305546e-08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.348800331424371e-07</v>
+        <v>1.780967018305546e-08</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.245316006828387</v>
+        <v>-1.220158107700541</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.6101055441821561, -0.8805264694746171]</t>
+          <t>[-1.534631846798618, -0.9056843686024632]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.557960493947519e-08</v>
+        <v>6.422342657685931e-10</v>
       </c>
       <c r="S17" t="n">
-        <v>1.557960493947519e-08</v>
+        <v>6.422342657685931e-10</v>
       </c>
       <c r="T17" t="n">
-        <v>57.89310267453712</v>
+        <v>53.86264199830125</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[47.738104191606055, 68.04810115746818]</t>
+          <t>[45.46125419913019, 62.26402979747231]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W17" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X17" t="n">
-        <v>4.984684684684783</v>
+        <v>4.922822822822923</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.524524524524595</v>
+        <v>3.654054054054128</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.444844844844971</v>
+        <v>6.191591591591718</v>
       </c>
     </row>
   </sheetData>
